--- a/052c doc/woC_model_version/feature通道绝对值平均值.xlsx
+++ b/052c doc/woC_model_version/feature通道绝对值平均值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\woC_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C451E0-B140-4C8D-B1D1-1478E30EA224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6808BDBA-F70F-4914-BFC8-6262F0D4E708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,36 +106,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-              <a:t>l1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-              <a:t> out</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -187,10 +157,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$64</c:f>
+              <c:f>Sheet1!$A$1:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0.12172044</c:v>
                 </c:pt>
@@ -388,7 +358,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A5C-4F89-998D-54D3EE4E09D9}"/>
+              <c16:uniqueId val="{00000000-583C-47E3-90B0-3F7E0D8EF19B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -402,16 +372,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="646416056"/>
-        <c:axId val="646418616"/>
+        <c:axId val="686106576"/>
+        <c:axId val="686108176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="646416056"/>
+        <c:axId val="686106576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -448,7 +419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646418616"/>
+        <c:crossAx val="686108176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -456,7 +427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="646418616"/>
+        <c:axId val="686108176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +478,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646416056"/>
+        <c:crossAx val="686106576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -521,13 +492,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1406,7 +1370,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E22-4835-9AFA-37B73FB6E252}"/>
+              <c16:uniqueId val="{00000000-18AF-41AA-B763-65197C3A5D72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1420,11 +1384,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="604649744"/>
-        <c:axId val="604650704"/>
+        <c:axId val="707618232"/>
+        <c:axId val="707619192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604649744"/>
+        <c:axId val="707618232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1430,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604650704"/>
+        <c:crossAx val="707619192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1474,7 +1438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604650704"/>
+        <c:axId val="707619192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604649744"/>
+        <c:crossAx val="707618232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1647,10 +1611,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$1:$A$64</c:f>
+              <c:f>Sheet2!$A$1:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0.121841624</c:v>
                 </c:pt>
@@ -1848,7 +1812,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D40-4883-8D07-5B770F6815B4}"/>
+              <c16:uniqueId val="{00000000-7EFD-46ED-A54D-0756ECB8D6DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1862,16 +1826,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="646398776"/>
-        <c:axId val="646394616"/>
+        <c:axId val="670648592"/>
+        <c:axId val="670647312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="646398776"/>
+        <c:axId val="670648592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1908,7 +1873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646394616"/>
+        <c:crossAx val="670647312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1916,7 +1881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="646394616"/>
+        <c:axId val="670647312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1932,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646398776"/>
+        <c:crossAx val="670648592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1981,13 +1946,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2089,10 +2047,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$1:$A$64</c:f>
+              <c:f>Sheet3!$A$1:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>8.3108399999999999E-2</c:v>
                 </c:pt>
@@ -2290,7 +2248,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78FA-4B4C-BFA6-2F3BF8D093D3}"/>
+              <c16:uniqueId val="{00000000-3923-4958-9E6B-649079AA5D8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2304,16 +2262,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="646375416"/>
-        <c:axId val="646377016"/>
+        <c:axId val="670674192"/>
+        <c:axId val="670676432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="646375416"/>
+        <c:axId val="670674192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2350,7 +2309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646377016"/>
+        <c:crossAx val="670676432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +2317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="646377016"/>
+        <c:axId val="670676432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2368,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646375416"/>
+        <c:crossAx val="670674192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2423,13 +2382,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2480,32 +2432,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-              <a:t>l4 out</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2557,10 +2483,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$A$1:$A$64</c:f>
+              <c:f>Sheet4!$A$1:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>5.0809926999999998E-2</c:v>
                 </c:pt>
@@ -2758,7 +2684,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B449-48DA-9334-EEF584D63B39}"/>
+              <c16:uniqueId val="{00000000-3A2E-4D02-900E-984467BFB7D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2772,16 +2698,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="717874832"/>
-        <c:axId val="717875152"/>
+        <c:axId val="689739024"/>
+        <c:axId val="689740624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="717874832"/>
+        <c:axId val="689739024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2818,7 +2745,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717875152"/>
+        <c:crossAx val="689740624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2826,7 +2753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="717875152"/>
+        <c:axId val="689740624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,7 +2804,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717874832"/>
+        <c:crossAx val="689739024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2891,13 +2818,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2999,10 +2919,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$A$1:$A$128</c:f>
+              <c:f>Sheet5!$A$1:$A$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>0.43410599999999999</c:v>
                 </c:pt>
@@ -3392,7 +3312,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5114-4C8F-AF4E-6AC4DFD7696C}"/>
+              <c16:uniqueId val="{00000000-12BA-448E-9E67-74B2D42E56F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3406,16 +3326,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="717853392"/>
-        <c:axId val="717856272"/>
+        <c:axId val="400255608"/>
+        <c:axId val="400255928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="717853392"/>
+        <c:axId val="400255608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3452,7 +3373,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717856272"/>
+        <c:crossAx val="400255928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3460,7 +3381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="717856272"/>
+        <c:axId val="400255928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3511,7 +3432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717853392"/>
+        <c:crossAx val="400255608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3525,13 +3446,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3633,10 +3547,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$A$1:$A$128</c:f>
+              <c:f>Sheet6!$A$1:$A$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>0.44952356999999998</c:v>
                 </c:pt>
@@ -4026,7 +3940,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B827-4FAA-A1C0-5078EC88CE72}"/>
+              <c16:uniqueId val="{00000000-889D-4376-B6CF-DDFE0E1485F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4040,16 +3954,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="721759760"/>
-        <c:axId val="721758480"/>
+        <c:axId val="400255288"/>
+        <c:axId val="400256888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="721759760"/>
+        <c:axId val="400255288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4086,7 +4001,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721758480"/>
+        <c:crossAx val="400256888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4094,7 +4009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="721758480"/>
+        <c:axId val="400256888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4060,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721759760"/>
+        <c:crossAx val="400255288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4159,13 +4074,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4660,7 +4568,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7276-4BDC-9EA1-F55594689E3E}"/>
+              <c16:uniqueId val="{00000000-861A-4198-AC2A-7D6A904D7619}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4674,16 +4582,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="438449272"/>
-        <c:axId val="721261456"/>
+        <c:axId val="709764496"/>
+        <c:axId val="709767056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="438449272"/>
+        <c:axId val="709764496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4720,7 +4629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721261456"/>
+        <c:crossAx val="709767056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4728,7 +4637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="721261456"/>
+        <c:axId val="709767056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +4688,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438449272"/>
+        <c:crossAx val="709764496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4793,13 +4702,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4850,32 +4752,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-              <a:t>l8 out</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4927,10 +4803,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$A$1:$A$256</c:f>
+              <c:f>Sheet8!$A$1:$A$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>7.8203990000000001E-2</c:v>
                 </c:pt>
@@ -5704,7 +5580,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19AD-42A6-9E54-275C61E3EB60}"/>
+              <c16:uniqueId val="{00000000-FF09-4140-872C-52F8CAE042EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5718,11 +5594,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="721313872"/>
-        <c:axId val="721314192"/>
+        <c:axId val="592558328"/>
+        <c:axId val="592558648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="721313872"/>
+        <c:axId val="592558328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5764,7 +5640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721314192"/>
+        <c:crossAx val="592558648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5772,7 +5648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="721314192"/>
+        <c:axId val="592558648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5823,7 +5699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721313872"/>
+        <c:crossAx val="592558328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5945,10 +5821,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet9!$A$1:$A$256</c:f>
+              <c:f>Sheet9!$A$1:$A$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="256"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>3.5195373000000002E-2</c:v>
                 </c:pt>
@@ -6722,7 +6598,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-38D8-46CD-93E4-CEF814BDA308}"/>
+              <c16:uniqueId val="{00000000-9B31-4FC2-8E09-3AD197361359}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6736,11 +6612,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="604677264"/>
-        <c:axId val="604678544"/>
+        <c:axId val="707596472"/>
+        <c:axId val="707599032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604677264"/>
+        <c:axId val="707596472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6782,7 +6658,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604678544"/>
+        <c:crossAx val="707599032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6790,7 +6666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604678544"/>
+        <c:axId val="707599032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6841,7 +6717,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604677264"/>
+        <c:crossAx val="707596472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12344,10 +12220,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9DAC11-8DE7-4F00-91F2-99676284DC2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AA51EC-0785-489A-B283-97B2213111E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12372,23 +12248,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECC891B-F5B7-43D6-BB82-FAB3E38756AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0569F7FC-11D6-42B8-9B70-EA704B371B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12415,21 +12291,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F50BDBF-8D52-4EF3-9250-94C58083546D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4093125-01A6-4003-BA5F-2FFE4F7A3FE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12456,21 +12332,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924B8DB5-8D23-4B66-B65C-6C15FDE857B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941A8F9-0940-4E3A-B0C4-961CF3622A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12508,10 +12384,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA44B59-CEED-4EF9-AB6A-4CECC50DE32E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D98B7D-7663-4736-B40E-5688135BE1DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12536,23 +12412,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCAC23B-0474-4BF1-B8ED-00C52C0029FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043F8BA7-CF8B-41C3-917B-CA85A2D45F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12590,10 +12466,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26507F0A-F453-4912-9C82-662CA9D93AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498069DF-7D1F-445D-8C06-DAA315D69A83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12631,10 +12507,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702FAF6C-A035-4AD2-8CE5-3647A3D165F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319FFA88-0577-4499-BD31-267E3CE00484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12659,23 +12535,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752883E4-30E3-4385-BF54-FE71E98E5924}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63ACA220-53B2-4782-A2EA-0F838B921BEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12713,10 +12589,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBB4785-C03C-4A30-A6E3-7FA60B702745}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8FCBC8-3317-4DC9-95C2-A89155C31497}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13003,7 +12879,7 @@
   <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13340,8 +13216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFEDDF7-B930-4748-8155-7F724EFDDE8E}">
   <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="R174" sqref="R174"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14637,8 +14513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7175DF-A97B-46C6-BC47-63E19209AEAD}">
   <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14974,8 +14850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84946916-AA25-4037-9C86-8F3C1DDDDBBD}">
   <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15312,7 +15188,7 @@
   <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection sqref="A1:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15649,7 +15525,7 @@
   <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16306,7 +16182,7 @@
   <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16963,7 +16839,7 @@
   <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A129"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17619,8 +17495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBAEB6F-E571-43CA-BDAF-5E54F4871B8B}">
   <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18917,7 +18793,7 @@
   <dimension ref="A1:A256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
